--- a/game/Decide/Decide/Asset/Data/VillageHistory.xlsx
+++ b/game/Decide/Decide/Asset/Data/VillageHistory.xlsx
@@ -428,7 +428,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
